--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -19,12 +19,81 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+  <si>
+    <t>每日露水量（雨天）</t>
+  </si>
+  <si>
+    <t>每日露水量（晴天）</t>
+  </si>
+  <si>
+    <t>游戏日时间</t>
+  </si>
   <si>
     <t>实体数量</t>
   </si>
   <si>
     <t>静电量/200tick</t>
+  </si>
+  <si>
+    <t>版本</t>
+  </si>
+  <si>
+    <t>修复BUG 数量</t>
+  </si>
+  <si>
+    <t>v17.0.1</t>
+  </si>
+  <si>
+    <t>v17.0.2</t>
+  </si>
+  <si>
+    <t>v17.0.3</t>
+  </si>
+  <si>
+    <t>v17.0.4</t>
+  </si>
+  <si>
+    <t>v17.0.5</t>
+  </si>
+  <si>
+    <t>v17.0.6</t>
+  </si>
+  <si>
+    <t>v17.0.7</t>
+  </si>
+  <si>
+    <t>v17.0.8</t>
+  </si>
+  <si>
+    <t>v17.0.9</t>
+  </si>
+  <si>
+    <t>v17.0.10</t>
+  </si>
+  <si>
+    <t>v17.0.11</t>
+  </si>
+  <si>
+    <t>v17.0.12</t>
+  </si>
+  <si>
+    <t>v17.0.13</t>
+  </si>
+  <si>
+    <t>v17.0.14</t>
+  </si>
+  <si>
+    <t>v17.0.15</t>
+  </si>
+  <si>
+    <t>v17.1.0</t>
+  </si>
+  <si>
+    <t>v17.1.1</t>
+  </si>
+  <si>
+    <t>v17.1.2</t>
   </si>
 </sst>
 </file>
@@ -37,14 +106,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -502,46 +564,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -553,97 +618,94 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1040,7 +1102,1605 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr defTabSz="914400">
+              <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr>
+                <a:latin typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
+                <a:ea typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
+              </a:rPr>
+              <a:t>露水采集时间表</a:t>
+            </a:r>
+            <a:endParaRPr>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10026436621678"/>
+          <c:y val="0.181610768879763"/>
+          <c:w val="0.869124808682343"/>
+          <c:h val="0.543554642938627"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>每日露水量（雨天）</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$T$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$1:$T$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>每日露水量（晴天）</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$T$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$T$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="0"/>
+        <c:smooth val="0"/>
+        <c:axId val="818016413"/>
+        <c:axId val="226751340"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$3</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>游戏日时间</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:dLbls>
+                  <c:delete val="1"/>
+                </c:dLbls>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref/>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$3:$T$3</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="19"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1000</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2000</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>3000</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>4000</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>5000</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>6000</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>7000</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>8000</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>9000</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>10000</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>11000</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>12000</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>13000</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>14000</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>15000</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>16000</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>17000</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>18000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$3:$T$3</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="19"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1000</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2000</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>3000</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>4000</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>5000</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>6000</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>7000</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>8000</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>9000</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>10000</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>11000</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>12000</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>13000</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>14000</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>15000</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>16000</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>17000</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>18000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:dLbls>
+                  <c:delete val="1"/>
+                </c:dLbls>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref/>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$3:$T$3</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="19"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1000</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2000</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>3000</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>4000</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>5000</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>6000</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>7000</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>8000</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>9000</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>10000</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>11000</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>12000</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>13000</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>14000</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>15000</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>16000</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>17000</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>18000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>{4.3,2.5,3.5,4.5}</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>4.3</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2.5</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>3.5</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>4.5</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="4"/>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent5"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:dLbls>
+                  <c:delete val="1"/>
+                </c:dLbls>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref/>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$3:$T$3</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="19"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1000</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2000</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>3000</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>4000</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>5000</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>6000</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>7000</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>8000</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>9000</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>10000</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>11000</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>12000</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>13000</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>14000</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>15000</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>16000</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>17000</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>18000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>{2.4,4.4,1.8,2.8}</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>2.4</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>4.4</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1.8</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>2.8</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="5"/>
+                <c:order val="5"/>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent6"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:dLbls>
+                  <c:delete val="1"/>
+                </c:dLbls>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref/>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$3:$T$3</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="19"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1000</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2000</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>3000</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>4000</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>5000</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>6000</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>7000</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>8000</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>9000</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>10000</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>11000</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>12000</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>13000</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>14000</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>15000</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>16000</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>17000</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>18000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>{2,2,3,5}</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>5</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="818016413"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="226751340"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="226751340"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="818016413"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$35</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>修复BUG 数量</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$36:$A$53</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>v17.0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>v17.0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>v17.0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>v17.0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>v17.0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>v17.0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>v17.0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>v17.0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>v17.0.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>v17.0.10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>v17.0.11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>v17.0.12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>v17.0.13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>v17.0.14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>v17.0.15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>v17.1.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>v17.1.1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>v17.1.2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$36:$B$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="391366225"/>
+        <c:axId val="936142684"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="391366225"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="936142684"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="936142684"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="391366225"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1596,6 +3256,1025 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1617,12 +4296,72 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2056765" y="2965450"/>
+        <a:off x="2987040" y="2965450"/>
         <a:ext cx="4572000" cy="2743200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>512445</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>162560</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>146685</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>162560</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="8630920" y="3271520"/>
+        <a:ext cx="4572000" cy="2743200"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>612775</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>76835</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="图表 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="3176270" y="6791960"/>
+        <a:ext cx="7464425" cy="2794635"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2170,85 +4909,207 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:T53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="P51" sqref="P51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15.6944444444444" customWidth="1"/>
-    <col min="2" max="2" width="8.12037037037037" customWidth="1"/>
+    <col min="1" max="1" width="21.8240740740741" customWidth="1"/>
+    <col min="2" max="2" width="15.5555555555556" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:20">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1">
+        <v>3</v>
+      </c>
+      <c r="C1">
+        <v>3</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <v>3</v>
+      </c>
+      <c r="F1">
+        <v>2</v>
+      </c>
+      <c r="G1">
+        <v>2</v>
+      </c>
+      <c r="H1">
+        <v>2</v>
+      </c>
+      <c r="I1">
+        <v>0</v>
+      </c>
+      <c r="J1">
+        <v>0</v>
+      </c>
+      <c r="K1">
+        <v>0</v>
+      </c>
+      <c r="L1">
+        <v>0</v>
+      </c>
+      <c r="M1">
+        <v>0</v>
+      </c>
+      <c r="N1">
+        <v>0</v>
+      </c>
+      <c r="O1">
+        <v>0</v>
+      </c>
+      <c r="P1">
+        <v>0</v>
+      </c>
+      <c r="Q1">
+        <v>0</v>
+      </c>
+      <c r="R1">
+        <v>0</v>
+      </c>
+      <c r="S1">
+        <v>0</v>
+      </c>
+      <c r="T1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2">
+    <row r="3" spans="1:20">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3">
-        <v>50</v>
-      </c>
-      <c r="B3">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4">
-        <v>100</v>
-      </c>
-      <c r="B4">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5">
-        <v>150</v>
-      </c>
-      <c r="B5">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6">
-        <v>200</v>
-      </c>
-      <c r="B6">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7">
-        <v>250</v>
-      </c>
-      <c r="B7">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8">
-        <v>300</v>
-      </c>
-      <c r="B8">
-        <v>53</v>
+      <c r="C3">
+        <v>1000</v>
+      </c>
+      <c r="D3">
+        <v>2000</v>
+      </c>
+      <c r="E3">
+        <v>3000</v>
+      </c>
+      <c r="F3">
+        <v>4000</v>
+      </c>
+      <c r="G3">
+        <v>5000</v>
+      </c>
+      <c r="H3">
+        <v>6000</v>
+      </c>
+      <c r="I3">
+        <v>7000</v>
+      </c>
+      <c r="J3">
+        <v>8000</v>
+      </c>
+      <c r="K3">
+        <v>9000</v>
+      </c>
+      <c r="L3">
+        <v>10000</v>
+      </c>
+      <c r="M3">
+        <v>11000</v>
+      </c>
+      <c r="N3">
+        <v>12000</v>
+      </c>
+      <c r="O3">
+        <v>13000</v>
+      </c>
+      <c r="P3">
+        <v>14000</v>
+      </c>
+      <c r="Q3">
+        <v>15000</v>
+      </c>
+      <c r="R3">
+        <v>16000</v>
+      </c>
+      <c r="S3">
+        <v>17000</v>
+      </c>
+      <c r="T3">
+        <v>18000</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -2286,7 +5147,7 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -2320,6 +5181,158 @@
       </c>
       <c r="L14">
         <v>50.35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>11</v>
+      </c>
+      <c r="B40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>12</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>13</v>
+      </c>
+      <c r="B42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>14</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>15</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>16</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>17</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>18</v>
+      </c>
+      <c r="B47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>19</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>20</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>21</v>
+      </c>
+      <c r="B50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>22</v>
+      </c>
+      <c r="B51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>23</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>24</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22356" windowHeight="10020"/>
+    <workbookView windowWidth="22176" windowHeight="9780"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>每日露水量（雨天）</t>
   </si>
@@ -95,11 +95,23 @@
   <si>
     <t>v17.1.2</t>
   </si>
+  <si>
+    <t>流浪商人生成数量/24000tick</t>
+  </si>
+  <si>
+    <t>最大生成概率（%）</t>
+  </si>
+  <si>
+    <t>最小生成概率（%）</t>
+  </si>
+  <si>
+    <t>、</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -112,34 +124,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -156,14 +140,6 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -203,6 +179,21 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -253,7 +244,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -268,55 +280,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -334,31 +304,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -382,6 +340,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -394,7 +364,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -418,7 +412,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -442,6 +448,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -459,21 +471,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -506,6 +503,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -564,208 +576,216 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="008D8FB6"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2620,6 +2640,751 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1" forceAA="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:t>流浪商人生成</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0622617888440673"/>
+          <c:y val="0.250935550935551"/>
+          <c:w val="0.907135902072611"/>
+          <c:h val="0.623492723492723"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$60</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>最大生成概率（%）</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd" cmpd="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+              <a:tailEnd type="none"/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d contourW="25400"/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$60:$E$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.075</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$61</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>最小生成概率（%）</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+              <a:tailEnd type="none"/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d contourW="25400"/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$61:$E$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.025</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="0"/>
+        <c:smooth val="1"/>
+        <c:axId val="330576758"/>
+        <c:axId val="293969243"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="330576758"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1" forceAA="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="293969243"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="293969243"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:noFill/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1" forceAA="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="330576758"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1" forceAA="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="bg1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0760328279315623"/>
+          <c:y val="0.0640732279511953"/>
+          <c:w val="0.919794129920712"/>
+          <c:h val="0.839470682181155"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="20000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$59</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>流浪商人生成数量/24000tick</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:alpha val="20000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$59</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>流浪商人生成数量/24000tick</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:alpha val="20000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$59</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>流浪商人生成数量/24000tick</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="8D8FB6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="38000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:sp3d>
+              <a:extrusionClr>
+                <a:srgbClr val="FFFFFF"/>
+              </a:extrusionClr>
+              <a:contourClr>
+                <a:srgbClr val="FFFFFF"/>
+              </a:contourClr>
+            </a:sp3d>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="8D8FB6">
+                  <a:alpha val="20000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="38000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d>
+                <a:extrusionClr>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:extrusionClr>
+                <a:contourClr>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$59</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>流浪商人生成数量/24000tick</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="747644507"/>
+        <c:axId val="689487359"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="747644507"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="689487359"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="689487359"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="747644507"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:externalData r:id="rId1">
+    <c:autoUpdate val="0"/>
+  </c:externalData>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2740,6 +3505,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -3773,6 +4618,1025 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4296,7 +6160,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2987040" y="2965450"/>
+        <a:off x="3246120" y="2965450"/>
         <a:ext cx="4572000" cy="2743200"/>
       </xdr:xfrm>
       <a:graphic>
@@ -4326,7 +6190,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8630920" y="3271520"/>
+        <a:off x="8890000" y="3271520"/>
         <a:ext cx="4572000" cy="2743200"/>
       </xdr:xfrm>
       <a:graphic>
@@ -4356,7 +6220,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3176270" y="6791960"/>
+        <a:off x="3435350" y="6791960"/>
         <a:ext cx="7464425" cy="2794635"/>
       </xdr:xfrm>
       <a:graphic>
@@ -4367,7 +6231,583 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>572770</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>290830</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="3" name="组合 2"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5247005" y="9904095"/>
+          <a:ext cx="4655820" cy="3075305"/>
+          <a:chOff x="8247" y="15811"/>
+          <a:chExt cx="7320" cy="4910"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="15" name="组合 14"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="8247" y="15811"/>
+            <a:ext cx="7320" cy="4910"/>
+            <a:chOff x="8247" y="15812"/>
+            <a:chExt cx="7321" cy="4910"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:graphicFrame>
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="7" name="图表 6" descr="7b0a202020202263686172745265734964223a20223230343732313939220a7d0a"/>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="8380" y="15912"/>
+            <a:ext cx="7189" cy="4810"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+              <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+        <xdr:graphicFrame>
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="8" name="图表 7"/>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="8247" y="15812"/>
+            <a:ext cx="7187" cy="4831"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+              <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </xdr:grpSp>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="9" name="文本框 8"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10053" y="19434"/>
+            <a:ext cx="401" cy="436"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+              <a:t>1</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="11" name="文本框 10"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="11315" y="18947"/>
+            <a:ext cx="400" cy="431"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="zh-CN">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+              <a:t>2</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="13" name="文本框 12"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="12526" y="18024"/>
+            <a:ext cx="400" cy="431"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="zh-CN">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+              <a:t>4</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="14" name="文本框 13"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="13671" y="16271"/>
+            <a:ext cx="400" cy="431"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="zh-CN">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+              <a:t>8</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.354013075532063</cdr:x>
+      <cdr:y>0.934719334719335</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.554319098622896</cdr:x>
+      <cdr:y>1</cdr:y>
+    </cdr:to>
+    <cdr:sp>
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="矩形 1"/>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1616075" y="2854960"/>
+          <a:ext cx="914400" cy="199390"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:bodyPr>
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4909,15 +7349,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T53"/>
+  <dimension ref="A1:T64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="P51" sqref="P51"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="P62" sqref="P62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="21.8240740740741" customWidth="1"/>
+    <col min="1" max="1" width="25.6018518518519" customWidth="1"/>
     <col min="2" max="2" width="15.5555555555556" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5333,6 +7773,62 @@
       </c>
       <c r="B53">
         <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" t="s">
+        <v>25</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59">
+        <v>2</v>
+      </c>
+      <c r="D59">
+        <v>4</v>
+      </c>
+      <c r="E59">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" t="s">
+        <v>26</v>
+      </c>
+      <c r="B60" s="1">
+        <v>75</v>
+      </c>
+      <c r="C60">
+        <v>7.5</v>
+      </c>
+      <c r="D60">
+        <v>0.75</v>
+      </c>
+      <c r="E60">
+        <v>0.075</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" t="s">
+        <v>27</v>
+      </c>
+      <c r="B61" s="1">
+        <v>25</v>
+      </c>
+      <c r="C61">
+        <v>2.5</v>
+      </c>
+      <c r="D61">
+        <v>0.25</v>
+      </c>
+      <c r="E61">
+        <v>0.025</v>
+      </c>
+    </row>
+    <row r="64" spans="16:16">
+      <c r="P64" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
